--- a/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
+++ b/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/20240708_Orthofinder Results/Results_Jul07/Orthogroups/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/2024_Orthofinder Results/Results_Jul07/Orthogroups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53BE59D1-ADB2-4483-961B-4315C26E6FF8}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7944BF1C-D7E3-4A84-B541-BDC533CAEA97}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2184" yWindow="2316" windowWidth="17280" windowHeight="10104" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
+    <workbookView minimized="1" xWindow="5784" yWindow="708" windowWidth="17292" windowHeight="11856" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthogroups" sheetId="2" r:id="rId1"/>
@@ -17523,12 +17523,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -17543,8 +17549,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18147,9 +18154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F490DB99-BC92-4467-91FC-387E3D8437EE}">
   <dimension ref="A1:AT472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO195" sqref="AO195"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27889,143 +27896,143 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="70" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>2678</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>2679</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>2680</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>2682</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="1" t="s">
         <v>2681</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="1" t="s">
         <v>2683</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="1" t="s">
         <v>2685</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="1" t="s">
         <v>2686</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" s="1" t="s">
         <v>2690</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" s="1" t="s">
         <v>2691</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L70" s="1" t="s">
         <v>2692</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70" s="1" t="s">
         <v>2693</v>
       </c>
-      <c r="N70" t="s">
+      <c r="N70" s="1" t="s">
         <v>2694</v>
       </c>
-      <c r="O70" t="s">
+      <c r="O70" s="1" t="s">
         <v>2695</v>
       </c>
-      <c r="P70" t="s">
+      <c r="P70" s="1" t="s">
         <v>2697</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="Q70" s="1" t="s">
         <v>2698</v>
       </c>
-      <c r="R70" t="s">
+      <c r="R70" s="1" t="s">
         <v>2699</v>
       </c>
-      <c r="S70" t="s">
+      <c r="S70" s="1" t="s">
         <v>2700</v>
       </c>
-      <c r="T70" t="s">
+      <c r="T70" s="1" t="s">
         <v>2701</v>
       </c>
-      <c r="U70" t="s">
+      <c r="U70" s="1" t="s">
         <v>2706</v>
       </c>
-      <c r="V70" t="s">
+      <c r="V70" s="1" t="s">
         <v>2707</v>
       </c>
-      <c r="W70" t="s">
+      <c r="W70" s="1" t="s">
         <v>2708</v>
       </c>
-      <c r="X70" t="s">
+      <c r="X70" s="1" t="s">
         <v>2709</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Y70" s="1" t="s">
         <v>2703</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Z70" s="1" t="s">
         <v>2704</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AA70" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AB70" s="1" t="s">
         <v>2696</v>
       </c>
-      <c r="AC70" t="s">
+      <c r="AC70" s="1" t="s">
         <v>2688</v>
       </c>
-      <c r="AD70" t="s">
+      <c r="AD70" s="1" t="s">
         <v>2702</v>
       </c>
-      <c r="AE70" t="s">
+      <c r="AE70" s="1" t="s">
         <v>2710</v>
       </c>
-      <c r="AF70" t="s">
+      <c r="AF70" s="1" t="s">
         <v>2689</v>
       </c>
-      <c r="AG70" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH70" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI70" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ70" t="s">
-        <v>200</v>
-      </c>
-      <c r="AK70" t="s">
-        <v>200</v>
-      </c>
-      <c r="AL70" t="s">
-        <v>200</v>
-      </c>
-      <c r="AM70" t="s">
-        <v>200</v>
-      </c>
-      <c r="AN70" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO70" t="s">
-        <v>200</v>
-      </c>
-      <c r="AP70" t="s">
-        <v>200</v>
-      </c>
-      <c r="AQ70" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR70" t="s">
-        <v>200</v>
-      </c>
-      <c r="AS70" t="s">
+      <c r="AG70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS70" s="1" t="s">
         <v>2687</v>
       </c>
-      <c r="AT70" t="s">
+      <c r="AT70" s="1" t="s">
         <v>200</v>
       </c>
     </row>

--- a/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
+++ b/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="203" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7944BF1C-D7E3-4A84-B541-BDC533CAEA97}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5784" yWindow="708" windowWidth="17292" windowHeight="11856" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
+    <workbookView minimized="1" xWindow="8208" yWindow="144" windowWidth="14832" windowHeight="13632" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthogroups" sheetId="2" r:id="rId1"/>
@@ -18154,9 +18154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F490DB99-BC92-4467-91FC-387E3D8437EE}">
   <dimension ref="A1:AT472"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P63" sqref="P63"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO4" sqref="AO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
+++ b/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="203" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7944BF1C-D7E3-4A84-B541-BDC533CAEA97}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8208" yWindow="144" windowWidth="14832" windowHeight="13632" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthogroups" sheetId="2" r:id="rId1"/>
@@ -18154,9 +18154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F490DB99-BC92-4467-91FC-387E3D8437EE}">
   <dimension ref="A1:AT472"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO4" sqref="AO4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
+++ b/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="203" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7944BF1C-D7E3-4A84-B541-BDC533CAEA97}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="13800" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthogroups" sheetId="2" r:id="rId1"/>
@@ -18154,9 +18154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F490DB99-BC92-4467-91FC-387E3D8437EE}">
   <dimension ref="A1:AT472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR2" sqref="AR2:AR26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
+++ b/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/2024_Orthofinder Results/Results_Jul07/Orthogroups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7944BF1C-D7E3-4A84-B541-BDC533CAEA97}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE2F659F-1DFB-48C1-A956-17073D064777}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="13800" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthogroups" sheetId="2" r:id="rId1"/>
@@ -18155,8 +18155,8 @@
   <dimension ref="A1:AT472"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR2" sqref="AR2:AR26"/>
+      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT2" sqref="AT2:AT25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18197,7 +18197,7 @@
     <col min="35" max="35" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="73.44140625" customWidth="1"/>
     <col min="37" max="37" width="45.5546875" customWidth="1"/>
-    <col min="38" max="38" width="28.88671875" customWidth="1"/>
+    <col min="38" max="38" width="44" customWidth="1"/>
     <col min="39" max="39" width="38.33203125" customWidth="1"/>
     <col min="40" max="40" width="61.5546875" customWidth="1"/>
     <col min="41" max="41" width="50" customWidth="1"/>

--- a/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
+++ b/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
@@ -18155,8 +18155,8 @@
   <dimension ref="A1:AT472"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT2" sqref="AT2:AT25"/>
+      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR7" sqref="AR7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
+++ b/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="205" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE2F659F-1DFB-48C1-A956-17073D064777}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="13800" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthogroups" sheetId="2" r:id="rId1"/>
@@ -18155,8 +18155,8 @@
   <dimension ref="A1:AT472"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR7" sqref="AR7"/>
+      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM18" sqref="AM18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
+++ b/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="205" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE2F659F-1DFB-48C1-A956-17073D064777}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="13800" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthogroups" sheetId="2" r:id="rId1"/>
@@ -18155,8 +18155,8 @@
   <dimension ref="A1:AT472"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM18" sqref="AM18"/>
+      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR22" sqref="AR22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
+++ b/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
@@ -18156,7 +18156,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR22" sqref="AR22"/>
+      <selection pane="topRight" activeCell="AP2" sqref="AP2:AP27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
+++ b/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/2024_Orthofinder Results/Results_Jul07/Orthogroups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE2F659F-1DFB-48C1-A956-17073D064777}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E73BA17-3A15-431D-9180-645F97EA104B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
   </bookViews>
@@ -18155,8 +18155,8 @@
   <dimension ref="A1:AT472"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP2" sqref="AP2:AP27"/>
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18190,7 +18190,7 @@
     <col min="28" max="28" width="67.5546875" customWidth="1"/>
     <col min="29" max="29" width="66.88671875" customWidth="1"/>
     <col min="30" max="30" width="60.109375" customWidth="1"/>
-    <col min="31" max="31" width="45" customWidth="1"/>
+    <col min="31" max="31" width="52.33203125" customWidth="1"/>
     <col min="32" max="32" width="51.6640625" customWidth="1"/>
     <col min="33" max="33" width="35.21875" customWidth="1"/>
     <col min="34" max="34" width="38.77734375" customWidth="1"/>

--- a/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
+++ b/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/2024_Orthofinder Results/Results_Jul07/Orthogroups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E73BA17-3A15-431D-9180-645F97EA104B}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38EED349-D17E-4378-A655-CF55BEBCDB0C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
   </bookViews>
@@ -18154,9 +18154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F490DB99-BC92-4467-91FC-387E3D8437EE}">
   <dimension ref="A1:AT472"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF10" sqref="AF10"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ34" sqref="AJ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
+++ b/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
@@ -18154,9 +18154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F490DB99-BC92-4467-91FC-387E3D8437EE}">
   <dimension ref="A1:AT472"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ34" sqref="AJ34"/>
+    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
+++ b/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/2024_Orthofinder Results/Results_Jul07/Orthogroups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38EED349-D17E-4378-A655-CF55BEBCDB0C}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57442EB5-C813-4325-B4AF-5FCD31A5690D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
+    <workbookView minimized="1" xWindow="2112" yWindow="1044" windowWidth="14832" windowHeight="12360" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthogroups" sheetId="2" r:id="rId1"/>
@@ -17523,7 +17523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17533,6 +17533,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17549,9 +17561,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18154,9 +18168,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F490DB99-BC92-4467-91FC-387E3D8437EE}">
   <dimension ref="A1:AT472"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18168,7 +18182,7 @@
     <col min="5" max="5" width="34" customWidth="1"/>
     <col min="6" max="6" width="42.44140625" customWidth="1"/>
     <col min="7" max="7" width="47.109375" customWidth="1"/>
-    <col min="8" max="8" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71" customWidth="1"/>
     <col min="9" max="9" width="51.44140625" customWidth="1"/>
     <col min="10" max="10" width="81" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="61.33203125" customWidth="1"/>
@@ -18184,7 +18198,7 @@
     <col min="21" max="21" width="40.21875" customWidth="1"/>
     <col min="22" max="22" width="41.77734375" customWidth="1"/>
     <col min="23" max="23" width="44.44140625" customWidth="1"/>
-    <col min="24" max="24" width="38.88671875" customWidth="1"/>
+    <col min="24" max="24" width="71.44140625" customWidth="1"/>
     <col min="25" max="25" width="58.44140625" customWidth="1"/>
     <col min="26" max="27" width="81" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="67.5546875" customWidth="1"/>
@@ -18240,139 +18254,139 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5774</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5776</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5778</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5777</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5779</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5780</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5783</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5785</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>5791</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>5792</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>5793</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>5794</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>5795</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>5796</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>5800</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>5801</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>5802</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>5805</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>5806</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>5812</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>5813</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>5814</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>5815</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>5808</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>5809</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>5810</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>5817</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>5789</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>5807</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>5816</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>5790</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>5797</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>5799</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>5804</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>5811</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>5803</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>5775</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>5773</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>5782</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>5784</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>5781</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>5786</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>5798</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>5787</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>5788</v>
       </c>
     </row>
@@ -84326,8 +84340,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
+++ b/2024_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="256" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57442EB5-C813-4325-B4AF-5FCD31A5690D}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2112" yWindow="1044" windowWidth="14832" windowHeight="12360" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
+    <workbookView minimized="1" xWindow="1920" yWindow="1920" windowWidth="14832" windowHeight="12360" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthogroups" sheetId="2" r:id="rId1"/>
@@ -18169,8 +18169,8 @@
   <dimension ref="A1:AT472"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT1" sqref="AT1"/>
+      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT13" sqref="AT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
